--- a/이것저것연습/프로그램.xlsx
+++ b/이것저것연습/프로그램.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A1B16F-6FC1-4AED-A0BB-98714C0CBB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4C27A3-7930-4197-A9D1-5ABFC8294C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="2120">
   <si>
     <t>프로그램명</t>
   </si>
@@ -5879,12 +5879,636 @@
   <si>
     <t>미술 치료 기법과 심리 상담 이론을 배우며 자신을 알아보고 주변사람 이해하기</t>
   </si>
+  <si>
+    <t>제11회 제주시청소년수련시설 연합 가족캠프 &lt;가족캠프:Again2011&gt; 모집</t>
+  </si>
+  <si>
+    <t>가족 소통의 장, 장기자랑, 레크레이션, 가족과 함께 힐링의 시간, 캠핑 요리 즐기기</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>제.청.수-스.사교실</t>
+  </si>
+  <si>
+    <t>청소년 대상 스마트폰 예방교육, 사진이랑 빛이랑, 촬영리뷰, 나만의 작품 만들기, 나의 작품 설명</t>
+  </si>
+  <si>
+    <t>(가칭) 환경동아리 모집</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경문제에 따른 기후변화로 인해 우리가 겪을 다양한 문제점들을 이해하고, 기후변화에 따른 환경 보호 캠페인 및 환경 관련 기획활동 </t>
+  </si>
+  <si>
+    <t>YB클럽 동아리 모집</t>
+  </si>
+  <si>
+    <t>매월 두 번의 책 소객 및 토론 활동, 지역 청소년 축제 및 시설 축제 참가</t>
+  </si>
+  <si>
+    <t>제청수 보컬 트레이닝</t>
+  </si>
+  <si>
+    <t>보컬 트레이닝의 기초 호흡을 기본으로 목에 힘이 빠지는 연습 벨팅과 애국가, 호흡과 애국가, 소리의 위치, 허밍과 마스께라, 믹스 보이스</t>
+  </si>
+  <si>
+    <t>3D펜&amp;프린터로 만드는 우리의 꿈</t>
+  </si>
+  <si>
+    <t>3D프린터의 대한 기초 및 3D펜을 이해하고, 3D 프린터와 3D펜을 이용한 드림캐처, 무드등 만들기</t>
+  </si>
+  <si>
+    <t>분장특강</t>
+  </si>
+  <si>
+    <t>피와 멍 만들기 인조피와 라이닝컬러를 활용하여 멍과 상처를 표현해 본다. 상처 분장, 화상 분장, 자유 표현 등을 학습하여 캐릭터의 분장에 대한 이해를 높인다.</t>
+  </si>
+  <si>
+    <t>바람과 E스포츠 플레이(중고등)</t>
+  </si>
+  <si>
+    <t>청소년이 선호하는 게임을 건강하게 즐길 수 있는 문화 만들기, 3인 랜덤 구성으로 경기를 진행하며 스마트폰을 활용한 온라인 경기 경기종목으로는 브롤스타즈를 따른다.</t>
+  </si>
+  <si>
+    <t>친구들아 혼디 맹그랑 놀아보게</t>
+  </si>
+  <si>
+    <t>곤각시 맹그랑 놀아보게, 보리뺑이를 가지고 놀이 만들기, 종이인형을 만들고 나를 소개하기, 넉동배기, 공기 맹그랑 놀아보게, 쪽기 맹그랑 놀아보게, 실뜨기 맹그랑 놀아보게</t>
+  </si>
+  <si>
+    <t>청소년DREAM프로젝트-환경축제</t>
+  </si>
+  <si>
+    <t>비치코잉 체험, 먹거리 체험, 환경 퀴즈 및 워드서치, 제로웨이스트 상품, 플라스틱 뚜껑 모으기 다양한 환경 축제</t>
+  </si>
+  <si>
+    <t>글라스아트</t>
+  </si>
+  <si>
+    <t>스테인글라스를 모티브로 다양한 유리공예 기법 중에서도 어린이들도 안전하게 즐길 수 있는 글라스아트를 기획하여 다양한 색감과 빛으로 만나는 공예품을 만들 수 있는 수업입니다.</t>
+  </si>
+  <si>
+    <t>청소년DREAM프로젝트-환경을 부탁해</t>
+  </si>
+  <si>
+    <t>청소년 환경 프로젝트 커피찌꺼기와 상토를 활용하여 채소 묘종 심기 플라스틱 병뚜껑 30개 이상 가지고 오면 화분 묘종심기 1회 추가가능 환경캠페인 모니터링</t>
+  </si>
+  <si>
+    <t>보통날(보드게임으로 통하는 날)</t>
+  </si>
+  <si>
+    <t>함께하는 게임을 통해 문제해결 전략을 배우고, 응용하며 사회성을 넓히는 기회를 통해 대인 관계 및 사회적 기술을 습득하는 과정 필요 게임의 목표에 따라 자신의 사고를 이미지화함으로써 정서발달을 촉진하고, 가족간의 공통의 취미를 통해 가족애를 형성한다.</t>
+  </si>
+  <si>
+    <t>경이로운코딩 고학년(4학년~6학년)</t>
+  </si>
+  <si>
+    <t>기본적인 코딩 및 피지컬 컴퓨팅의 개념과 스크래치 이용법 실습을 통한 실생활에서 입 출력장치 이해 기초 코딩과 컴퓨터에 대한 이해</t>
+  </si>
+  <si>
+    <t>경이로운 코딩 2~3학년</t>
+  </si>
+  <si>
+    <t>일러스트레슨 추가모집</t>
+  </si>
+  <si>
+    <t>연필을 가지고 다양한 느낌을 표현해 본다. 연필과 수채화를 활용해 꽃을 그려본다. 색연필과 오일파스텔을 활용하여 나무를 그리고, 나무에 자신이 좋아하는 과일을 표현해 본다. 자화상, 풍경 등에 대한 연필 스케치가 주를 이루는 수업</t>
+  </si>
+  <si>
+    <t>책의 날 기념YB데이)-YOUTH BOOK</t>
+  </si>
+  <si>
+    <t>추천 도서 소개, 슈링클스로 나만의 악세서리 만들기, 나만의 캐릭터 만들기, 미니바구니 만들기, 책 뒷 이야기 상상해서 쓰기</t>
+  </si>
+  <si>
+    <t>탐나는 사회</t>
+  </si>
+  <si>
+    <t>법과 모의제판, 인권, 우리나라 지리와 특성별 활동, 우리나라 역사 선사시대부터 현대사 까지</t>
+  </si>
+  <si>
+    <t>경이로운 AI코딩</t>
+  </si>
+  <si>
+    <t>인공지능이란? 사물 인터넷 알아보기, 스마트 자동차 만들기, 업로드 이미지 인식모델 학습하기, 3D 프린터에 대하여, 변수 활용하기 등 코딩에 대한 전반적인 내용을 다룬다</t>
+  </si>
+  <si>
+    <t>교육봉사동아리 '이든'과 함께하는 '이든스쿨'멘티모집</t>
+  </si>
+  <si>
+    <t>일대일 멘토 수업과 창의적 활동이 함께 진행되는 초등 영어, 수학 집중 교육 프로그램, 영어, 수학 일대일 멘토 수업</t>
+  </si>
+  <si>
+    <t>동백 꽃 필 무렵</t>
+  </si>
+  <si>
+    <t>제주 4,3 사태의 이해와 그 시대의 제주인의 생활 등을 알고 동백 문양을 활용한 다양한 소품 만들기</t>
+  </si>
+  <si>
+    <t>북아트 IN 역사</t>
+  </si>
+  <si>
+    <t>선사시대 생활, 고조선의 건국 및 생활모습, 초기 철기 국가 생활, 나라를 건국한 인물 삼국시대</t>
+  </si>
+  <si>
+    <t>제.청.수-농구교실</t>
+  </si>
+  <si>
+    <t>레이업, 레이업 기본스탭 및 러닝 레이업, 패스연습, 피멋연습, 슈팅연습, 수비연습, 스킬 트레이닝 기본 드리블을 토대로 다양한 농구 기술 습득</t>
+  </si>
+  <si>
+    <t>제청수 음악창작소</t>
+  </si>
+  <si>
+    <t>서로의 좋아하는 노래 소개 및 공유 작곡을 시작하는 4가지 방법 작사 노래 영상 시청 작곡 1, 작곡 2, 레코딩, 노래 제작</t>
+  </si>
+  <si>
+    <t>청소년모델</t>
+  </si>
+  <si>
+    <t>청소년 진로와 관련된 청소년 모델 활동 프로그램, 스트레칭 및 기본포즈, 워킹, 패션소 동선 및 미니패션소 진행</t>
+  </si>
+  <si>
+    <t>국제청소년성취포상제 모집</t>
+  </si>
+  <si>
+    <t>영국에서 온 단체로 청소년들이 봉사, 자기개발, 신체단련, 탐험활동 등 창의적 인성함양을 위한 활동을 통하여 청소년 스스로의 잠재력을 최대한 개발하고 삶의 기술을 익히는 국제적 자기성장 프로그램입니다.</t>
+  </si>
+  <si>
+    <t>영상동아리(오리지날) 모집</t>
+  </si>
+  <si>
+    <t>연기,영화, 광고, 뮤비제작 등 다양한 영상제작활동 영상 및 광고제작, 공모전 참가, 뮤비제작등 영상제작에 관심있는 청소년은 누구나 가능</t>
+  </si>
+  <si>
+    <t>책 모임동아리(고등)</t>
+  </si>
+  <si>
+    <t>책과 관련된 자유로운 활동 책과 관련된 프로그램 기획 및 운영 봉사활동시 봉사시간 부여 역량강화를 위한 특강 가능</t>
+  </si>
+  <si>
+    <t>E2 교육봉사 동아리 모집</t>
+  </si>
+  <si>
+    <t>초등학생을 대상으로한 교육프로그램 기획, 운영 활동에 따른 봉사시간 부여 청소년축제 활동 동아리연합활동 등</t>
+  </si>
+  <si>
+    <t>스마트한 SW 코딩</t>
+  </si>
+  <si>
+    <t>자율 주행 트레이싱 햄스터 봇, 할로코드와 엠블록, 스마트 과수원 엔트리 AI 등 실생활에 쓰이는 다양한 코딩에 대해 알아보자</t>
+  </si>
+  <si>
+    <t>두근두근SW코딩</t>
+  </si>
+  <si>
+    <t>자율 주행 라인 코딩 큐비몬, 블록 코딩 코돌이, 코딩 도레미 스크래치 체험 감정 이모티콘 만들기 엔트리</t>
+  </si>
+  <si>
+    <t>행복한 크리스마스를 위한 꼼지락</t>
+  </si>
+  <si>
+    <t>크리스마스 도어벨 크리스마스 꽃장식 가랜드 반짝반짝 오너먼트 크리스마스 캔들워머 등 크리스마스와 관련된 제품 제작</t>
+  </si>
+  <si>
+    <t>우리가족 쪽빛에 물들다</t>
+  </si>
+  <si>
+    <t>배게커버 감물 및 쪽 염색 체험</t>
+  </si>
+  <si>
+    <t>생각하고 실천하는 탄소중립(업사이클링 프로그램)</t>
+  </si>
+  <si>
+    <t>기후변화와 자원순환의 이해 바다유리, 나무이젤 만들기, 페트병 꽃 화분 만들기, 폐지활용 페이퍼와이어 아트 생각하고 실천하는 탄소중립</t>
+  </si>
+  <si>
+    <t>제주시청소년문화행사 YAP!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주 지역 청소년과 지역 주민을 대상으로 일상으로 회복을 기념하기 위한 청소년 공연, 다양한 체험부스와 먹거리 이벤트 등 </t>
+  </si>
+  <si>
+    <t>과학동아리 인싸 재능기부 프로그램 "3D프린터는 처음이지?"</t>
+  </si>
+  <si>
+    <t>마음을 담은 캘리그라피</t>
+  </si>
+  <si>
+    <t>캘리그라피를 배움으로써 글씨 교정은 물론 취미로 자기개발을 도모하고 다양한 감성표현으로 자기개발을 도모함.</t>
+  </si>
+  <si>
+    <t>꿈굽는 파티쉐</t>
+  </si>
+  <si>
+    <t>파티시에 기초 과정 배우기, 생크림 파운드 케이크 만들기 고구마 견과류 쿠키만들기 달고나 스콘 만들기 호두, 사과파이 만들기 초코머핀 만들기 레몬케이크 만들기 등 파티시에 기초과정</t>
+  </si>
+  <si>
+    <t>제주적 참견 시점-특별한 자치 참가자 모집</t>
+  </si>
+  <si>
+    <t>청소년들이 정책에 관심을 가져야 하는 이유 분과 탐색 및 분과 확정 정책 발굴을 위한 제주 청소년 현안 문제 탐색 도의원에게 듣는 제주도 현안 및 정책 이야기 도의원 멘토링제 제안 및 건의</t>
+  </si>
+  <si>
+    <t>미디어북으로 다시 그린 세상</t>
+  </si>
+  <si>
+    <t>미디어아트란? 미디어아트와 e-book에 대한 개념 이해. 미디어북 제작 촬영자료 제작 촬영 및 1차 편집 촬영자료 제작 및 편집 제목 및 자막 넣기 미디어북 영상 상영회</t>
+  </si>
+  <si>
+    <t>제주기후변화이야기</t>
+  </si>
+  <si>
+    <t>기후위기와 바이러스 환경 동화로 이야기하는 기후위기 비경쟁 독서토론으로 만나는 기후위기 기후위기와 환경운동가 탄소 발자국 O,X퀴즈 기후위기 캠페인송 만들기 지구 시그널, 기후위기</t>
+  </si>
+  <si>
+    <t>4.3 놀멍 걸으멍 맞추멍</t>
+  </si>
+  <si>
+    <t>후 세대들이 4.3에 대한 올바른 인식을 통해 역사 이해 증진 제주 4.3 관련 APP 제작 및 배포를 통해 청소년이 주도적으로 정보를 전달하고 역사적 사실을 객관적으로 이해하는 능력 향상</t>
+  </si>
+  <si>
+    <t>엄지피아노 칼림바</t>
+  </si>
+  <si>
+    <t>칼림바 소개, 악기 관리법 알기 칼림바 튜닝하기 저음부 자리익히기 및 연주 나비야, 비행기 칼림바 스케일 연습 총정리 및 작은 음악회</t>
+  </si>
+  <si>
+    <t>제주시청소년수련관 상상마당 기획단 모집(추가 연장)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">내 머리가 비상하다 싶은 청소년 집중 기획하는 걸 좋아하는 청소년 집중 신나고 싶은 청소년 집중 상상마당은 청소년들이 상상하고 원하는 프로그램을 직접 기획하고 운영해 보는 청소년 활동 </t>
+  </si>
+  <si>
+    <t>청소년수련관 교육봉사 동아리 "이든" - 이든스쿨_영어</t>
+  </si>
+  <si>
+    <t>기초 영어 학습을 위해 인사부터 자기 소개까지 영어로  할 수 있게 만든다. 단순히 영어 학습뿐만 아니라 다양한 신체활동을 통해 영어에 대한 흥미를 높인다.</t>
+  </si>
+  <si>
+    <t>단계적 드론 정복, 예열반</t>
+  </si>
+  <si>
+    <t>드론이  나는 기본적인 원리를 알고 드론을 작동할 수 있다. 드론과 관련하여 비행과 안전에 대한 준수사항을 이해하고 실천할 수 있다. 드론의 기초</t>
+  </si>
+  <si>
+    <t>속닥속닥 나와의 시간</t>
+  </si>
+  <si>
+    <t>나의 심리와 상대방의 심리에 대해 알고싶으신 분, 타로카드 배우기 아로마 오일테라피 즐기기, 힐링 타로와 아로마테라피 과정</t>
+  </si>
+  <si>
+    <t>청소년수련관 공간감을 활용한 창의과학프로그램 '엔돌핀'</t>
+  </si>
+  <si>
+    <t>과학 강의 나눔 활동을 통해 지역사회 일원으로서의 역할 수행 과학 실험을 통하여 과학 분야에 흥미와 관심이 있는 청소년에게 과학에 대한 긍정적 이미지 제공 실생활과 밀접한 수학적 활동을 통해 수학과의 친밀감을 형성하고 수학에 대한 자신감 향상</t>
+  </si>
+  <si>
+    <t>로봇과학(with 레고 스파이크 프라임)</t>
+  </si>
+  <si>
+    <t>레고 로봇이 어떻게 움직이는가? 레고 스파이크 프라임 관심 갖기, 레고를 이용한 메뚜기, 댄스, 헬스 트레이너 로봇, 자동연주 등 전반적인 자동화 레고와 자동화를 접합한 강좌</t>
+  </si>
+  <si>
+    <t>안 읽는 책 모임(일반)</t>
+  </si>
+  <si>
+    <t>가정에서 독서하는 분위기를 조성하기 위한 책 토론 모임, 집에서 읽지 않는 책들을 대상으로 서로 공유하며 토론하는 분위기 조성</t>
+  </si>
+  <si>
+    <t>생활속 SW융합</t>
+  </si>
+  <si>
+    <t>코딩의 기본이해 및 피치컬 컴퓨팅을 활동한 스크래치 이용법 실습</t>
+  </si>
+  <si>
+    <t>코딩없이 앱을 만드는 앱 인벤터(App inventor) 2</t>
+  </si>
+  <si>
+    <t>코딩 및 앱 인벤터의 개념과 원리를 이해하고 코딩 및 앱 인벤터 프로그램을 다룰 수 있다. 코딩 및 앱 인벤터의 개념과 원리를 이해한다. 직접 코딩 및 앱 인벤터 프로그램을 다룰 수 있다.</t>
+  </si>
+  <si>
+    <t>3D프린터가 궁금하면? 인싸로~</t>
+  </si>
+  <si>
+    <t>3D 프린터에 대한 궁금증을 해소하고 문제를 함께 공유하며 해결하는 방식으로 진행될 예정이다. 3D프린터의 기초 원리와 사용 방법을 이해하고 3D프린팅 제작물을 완성 한다.</t>
+  </si>
+  <si>
+    <t>한글날! ‘가갸거겨’ 오리고 붙여 마음에 새기는 날</t>
+  </si>
+  <si>
+    <t>한글날을 맞이하여, 한글날의 의미를 알고 세종대왕의 애민정신을 마음에 새길 수 있도록 우리말 알기 프로그램을 계획하게 되었다. 한글날의 의미와 중요성을 이해하고 우리말을 디자인하여 작품을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>2021 생활공예 프로그램 코로나 방콕! 방 메이커스</t>
+  </si>
+  <si>
+    <t>코로나로 인해 실내생활이 많아지는 지금, 성장기에 있는 청소년들이 답답함과 우울함을 해소하고 밝고 안정적인 삶을 추구할 수 있도록 문화감성 공예 프로 그램을 계획하게 되었다.  각종 공예의 원리와 만드는 방법을 이해하고 직접 공예제품을 만든다.</t>
+  </si>
+  <si>
+    <t>2021 우리 집은 간식 맛집 프로그램 참가자 모집</t>
+  </si>
+  <si>
+    <t>가족과 함께 미니케이크, 오렌지 젤리, 초코 타르트 만들기</t>
+  </si>
+  <si>
+    <t>2021 비대면 청소년환경축제 『청소년환경 그린라이트 』- 탄소중립 메세지를 담은 나만의 부채 꾸미기</t>
+  </si>
+  <si>
+    <t>환경 분야 전문가 토크, 체험 키트참여, 청소년공연 등 빈용기 재활용 친환경 화분만들기 양말목 코스터(티매트)만들기 탄소중립실천 메세지를 담은 나만의 부채 만들기</t>
+  </si>
+  <si>
+    <t>나만의 무드등 만들기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D프린터의 기초 원리와 사용 방법을 이해하고 3D프린팅 제작물을 완성 한다. 3D프린터의 기초원리와 사용 방법을 이해한다. </t>
+  </si>
+  <si>
+    <t>흥부재과- 틴커캐드와 3D프린터</t>
+  </si>
+  <si>
+    <t xml:space="preserve">틴커캐드와 3D프린터의 원리를 이해하고 직접 틴커캐드 프로그램을 이용하여 3D프린터로 출력할 수 있다. 틴커캐드와 3D프린터의 원리를 이해한다. </t>
+  </si>
+  <si>
+    <t>청문화도시樂 業그레이드 드론</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드론 및 드론 기기의 개념과 원리를 이해하고 직접 드론을 조종할 수 있다. </t>
+  </si>
+  <si>
+    <t>2021 동아리 R.E.N. 재능기부 프로그램 "재미가득! 생생 탐구속으로!"(매주 토요일)</t>
+  </si>
+  <si>
+    <t>안전교육, 전 과목 국어, 수학, 사회, 과학, 영어, 예체능에 대한 체험, 탐구 활동</t>
+  </si>
+  <si>
+    <t>상상력을 깨우는 4D 프레임</t>
+  </si>
+  <si>
+    <t>4D프레임을 이용한 여러가지입체 모형 제작 생명체의 설계도 DNA 와카 워터 무동력 자동차 시에르핀스키 삼각형</t>
+  </si>
+  <si>
+    <t>찾아가는 AI·SW교육 지역교실 - AI 문제해결(변경: AI융복합 SW교실-알고리즘 프로그램)</t>
+  </si>
+  <si>
+    <t>친숙한 주제를 톤한 컴퓨팅 사고력 성장과정 체계적 알고리즘 실습 디버깅 과정 심부름 로봇 게임 코딩하기</t>
+  </si>
+  <si>
+    <t>뜻밖의 선물! 드르륵 여름 이불을 부탁해 프로그램 참가자 모집</t>
+  </si>
+  <si>
+    <t>재봉틀 기본 기능 익히고 선박기 연습, 지퍼 없는 베갯잇과 여름 이불 만들기, 평가</t>
+  </si>
+  <si>
+    <t>청소년수련활동프로그램 [제주문화 미술로 잇다(제밋다)] 참가자모집</t>
+  </si>
+  <si>
+    <t>제주선인들의 문화특성과 지혜를 이해하여 자신의 꿈과 연결하는 작품활동을 해봄으로써 자기표현방법을 배우로 문화향유 능력을 향상 시킬수 있는 청소년문화예술활동프로그램 입니다.</t>
+  </si>
+  <si>
+    <t>1차 건담 로봇과 프라모델 바로가기 프로그램 참가자 모집</t>
+  </si>
+  <si>
+    <t>청소년들이 건담 캐릭터를 조립하고 만드는 과정에서 혼자 가지고 노는 장난감에서 벗어나 또래끼리 공감대와 놀이의 가치를 경험할 수 있는 프로그램 참가자를 모집합니다.</t>
+  </si>
+  <si>
+    <t>2021 지역연계사업 코딩프로그램 '경이로운 AI코딩' (중등)</t>
+  </si>
+  <si>
+    <t>코딩 및 AI의 개념과 원리를 이해하고 직접 코딩 및 AI 프로그램을 다룰 수 있다. 코딩 및 AI의 개념과 원리를 이해한다. 직접 코딩 및 AI 프로그램을 다룰 수 있다.</t>
+  </si>
+  <si>
+    <t>GOGO 웹툰스쿨 시즌 Ⅱ-중등창작체험교실</t>
+  </si>
+  <si>
+    <t>웹툰에 대한 이해와 만화 제작과정에 적극적으로 참여하고 활동함으로서 예비 웹툰 작가로서 입문 및 새로운 진로분야체험 기회를 제공</t>
+  </si>
+  <si>
+    <t>GOGO 웹툰스쿨 시즌 Ⅱ -초등창작체험교실</t>
+  </si>
+  <si>
+    <t>지역연계 환경프로그램 미래세대 물교육 ‘제주 물 DREAM’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주 지하수의 보존가치와 실태를 이해한다. 일상생활 속에서 물을 보전하고 절약할 수 있는 방법을 실천한다.  </t>
+  </si>
+  <si>
+    <t>빅히트엔터테인먼트와 함께하는 비대면 오디션 프로젝트 "생라면"!(생생한 라(나)의 장기를 비대면에서 펼쳐봐!)</t>
+  </si>
+  <si>
+    <t>저희 빅히트 엔터테인먼트 캐스팅은 향후에 데뷔를 목표로 하고 있는 연습생 발굴을 지속적으로 진행하고 있다. 관련하여 비대면 오디션 진행을 위한 공문을 발송한다.</t>
+  </si>
+  <si>
+    <t>2020 씽씽~ 인라인 혼줄 도르레기 참가자 모집</t>
+  </si>
+  <si>
+    <t>안전교육,인라인 기본 스케이팅 익히기, 트랙 코너링 익히기, 인라인 타고 스피드 경주, 평가</t>
+  </si>
+  <si>
+    <t>AI로봇과 함께 놀면서 코딩도 배우고'</t>
+  </si>
+  <si>
+    <t>청소년의 인공지능에 대한 올바른 이해와 코딩 교육으로 AI인재를 육성하기 위해 로봇과 코딩 학습에 관심 있는 프로그램 참가자를 모집한다.</t>
+  </si>
+  <si>
+    <t>2020 수다즐 친환경토털공예속으로 참가자 모집</t>
+  </si>
+  <si>
+    <t>개인 및 생활위생에 관심이 커짐에 따라 친환경 토털 공예의 기본 개념을 이해하고 친환경 작품 만들기 체험프로그램 참가자를 모집합니다.</t>
+  </si>
+  <si>
+    <t>2020 수다즐!(수련관에서 다시 즐기자) 레고속으로</t>
+  </si>
+  <si>
+    <t>사물의 구조와 형태를 관찰 하고 특징을 알 수 있다. 레고 재료로 간단한 모형을 구상하여 조립할 수 있다. 레고의 이해</t>
+  </si>
+  <si>
+    <t>2020 수다즐!(수련관에서 다시 즐기자)가죽공예속으로</t>
+  </si>
+  <si>
+    <t>평소 접하기 어려운 가족공예의 일반적 특성과 재단과정을 이해하는 과정을 통해 미적 경험의 발견과 진로탐색의 기회를 제공하는데 있다.</t>
+  </si>
+  <si>
+    <t>생과일(생활과학의 일상화)- 목공예</t>
+  </si>
+  <si>
+    <t>공예에 대한 진로와 적성을 가진 학생들이 공작기계를 활용한 다양한 만들기 활동을 통해 아이디어를 현실로 만들어보며 미래</t>
+  </si>
+  <si>
+    <t>뻥뚫리는 아두이노 코딩</t>
+  </si>
+  <si>
+    <t>아두이노 코딩을 이해하고 코딩을 통하여 아두이노 키트를 작동할 수 있다. 아두이노 코딩에 대한 전반적인 이해와 키트별 센서 사용법을 숙지한다. 아두이노 코딩키트를 조립하고 작동법을 배우고 다룰 수 있다.</t>
+  </si>
+  <si>
+    <t>인증 제5418호 청소년수련활동 인증프로그램 몽(夢)마르카부덴 참가자 모집 안내</t>
+  </si>
+  <si>
+    <t>진로게임을 통하여 자신의 장점을 찾아보고 게임을 통한 장점 지키기 및 장점 배우기 위기상황 대처 능력의 중요성에 대해 인식 자신의 미래를 상상해보며 진로에 대해 꿈꿔보는 시간을 갖고 꿈을 이루기 위한 실천 가능한 노력들을 생각해 보는 계기 마련</t>
+  </si>
+  <si>
+    <t>넌 핸드메이드를 즐겨봐, 난 십자수 공예를 준비할게!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핸드메이드를 만드는 과정을 통해 집중력을 배우고 다양한 시각으로 표현하는 예술 감각을 키우는데 있다. </t>
+  </si>
+  <si>
+    <t>2019 청소년 책모임 '라이팅 북' 참가자를 모집합니다.</t>
+  </si>
+  <si>
+    <t>책을 읽고 나만의 라이팅 북을 만드는 것을 목적으로 합니다.  책을 읽고 각자 토론 및 감상을 남기고 그를 토대로 나만의 라이팅 북 제작을 목표로 한다.</t>
+  </si>
+  <si>
+    <t>2019청소년수련관 여름방학 프로그램 『지구와 나를 지키는 UP-cycling』</t>
+  </si>
+  <si>
+    <t>자원문제가 우리의 일상생활과 밀접하게 관련된 환경문제임을 인식하여 친환경 소비문화를 만들어 나가는데 중요한 기회가 될 것이다. 청소년들이 직접 업사이클링 과정 체험을 통해 분리수거의 활성화, 재활용 제품에 대한 긍정적 인식 확립이 가능할 것이다.</t>
+  </si>
+  <si>
+    <t>메이크업 해봄! (중고등 대상)</t>
+  </si>
+  <si>
+    <t>화장에 관심이 많은 청소년들에게 화장 문화의 경험을 통해 나의 미적욕구를 알아가고, 타인의 개성을 존중하며, 나아가 새로운 화장 문화를 창조하는 가능성으로서의 교육 효과를 높이는데 있다.</t>
+  </si>
+  <si>
+    <t>아름다운 매듭 마크라메</t>
+  </si>
+  <si>
+    <t>만들기와 공간꾸미기에 관심 있는 청소년들에게 서양매듭을 통해 매듭의 패턴을 완성하고 디자인 예술 감각을 키우는데 있다.</t>
+  </si>
+  <si>
+    <t>디즈니 잉글리시 뮤직</t>
+  </si>
+  <si>
+    <t>노래에 관심이 있는 청소년들에게 영어 노래를 통하여 의미 있는 음악 경험을 제공하고 감수성과 음악적 의사소통 환경을 제공하는데 있다.</t>
+  </si>
+  <si>
+    <t>유니티 엔진 어디까지 해봤니?</t>
+  </si>
+  <si>
+    <t>게임 개발에 관심 있는 청소년들에게 유니트 엔진 활용을 통해 게임의 재미와 건전한 게임문화의 교육적 효과를 높이는데 있다. 유니티 엔진 배우기, 나만의 미니 게임 만들기</t>
+  </si>
+  <si>
+    <t>에코 그린, 에코 뿜뿜</t>
+  </si>
+  <si>
+    <t>태양광 키트 만들기, 자전거 발전기 체험 ,에어볼 지구 온난화 체험, 포푸리 방향제, 친환경 방향제, 신재생에너지의 이해</t>
+  </si>
+  <si>
+    <t>쌩 리얼 사회적기업 체험단 CEO로구나!</t>
+  </si>
+  <si>
+    <t>인화로 사회적 협동조합, 에코 감귤농장 CEO 만남 및 체험</t>
+  </si>
+  <si>
+    <t>아트는 나야 나!(마임과 놀기)</t>
+  </si>
+  <si>
+    <t>안전교육, 마임의 이해, 다양한 마임동작 배우기, 상황극 만들기, 작품구성과 연습, 발표회</t>
+  </si>
+  <si>
+    <t>제5회 청소년운영위원회 “바람”과 함께하는「나라사랑 골든벨」</t>
+  </si>
+  <si>
+    <t>나라 사랑 퀴즈대회, 우리말 쓰기 체험부스 운영, 청소년수련관 프로그램 모니터링</t>
+  </si>
+  <si>
+    <t>교육봉사동아리 페다고지 &lt;닥터(Dr.) 페다고지(pedagogy)&gt;</t>
+  </si>
+  <si>
+    <t>시내 인문계 고등학교로의 진학을 목표로 하는 학생들에게 모르는 문제, 혹은 심화 학습을 중심으로 멘토, 멘티 1:1수업으로 교육을 진행함으로써 학교수업내용 보충과 학력 향상을 목표로 진행할 계획입니다.</t>
+  </si>
+  <si>
+    <t>차이나는 에코(가죽공예) 클라스</t>
+  </si>
+  <si>
+    <t>자신의 아이디어로 창의적인 가죽공예 작품만들기</t>
+  </si>
+  <si>
+    <t>차이나는 에코(천연화장품)클라스</t>
+  </si>
+  <si>
+    <t>화학제품의 위해성을 알아보고 천연재료를 활용하여 청소년의 피부와 건강을 지키는 다양한 화장품 만들기</t>
+  </si>
+  <si>
+    <t>차이나는 에코(업사이클링)클라스</t>
+  </si>
+  <si>
+    <t>버려지는 물건들을 가치있는 물건으로 새활용 하는 방법을 익혀 친환경적 제품만들기</t>
+  </si>
+  <si>
+    <t>기후변화교육 “탐탐대로"-FUN FUN한 쓰레기</t>
+  </si>
+  <si>
+    <t>기후변화교육 탐탐대로 FUN FUN한 쓰레기</t>
+  </si>
+  <si>
+    <t>스마트한 사이인개- 스마트 코딩</t>
+  </si>
+  <si>
+    <t>오조봇을 이용한 코딩 이해 및 체험하기</t>
+  </si>
+  <si>
+    <t>인증 제3571호〉친환경 천연염색 “색으로 말하다"</t>
+  </si>
+  <si>
+    <t>수련관 주위의 나뭇잎, 꽃 등을 채취해 자연의 색을 알아보고 채취한 자연물 을 염색해 봄으로서 자연의 색깔을 알아보고 천연염색을 통한 작품 만들기 등</t>
+  </si>
+  <si>
+    <t>잡(job)자! 스도쿠 (중.고등)</t>
+  </si>
+  <si>
+    <t>논리, 수리, 창의직관 등 다양한 사고영역 강화</t>
+  </si>
+  <si>
+    <t>댄서 추가 모집안내</t>
+  </si>
+  <si>
+    <t>댄스 기본기술을 익혀 방송댄스 배우기</t>
+  </si>
+  <si>
+    <t>보컬 트레이너 추가 모집 안내</t>
+  </si>
+  <si>
+    <t>발성 기본 및 연습곡 완곡 분석 과 가창법 익히기</t>
+  </si>
+  <si>
+    <t>마술사 추가 모집안내</t>
+  </si>
+  <si>
+    <t>마술의 스킬 습득을 통해 상상력과 창의력 키우기</t>
+  </si>
+  <si>
+    <t>플로리스트 추가 모집안내</t>
+  </si>
+  <si>
+    <t>꽃, 식물 등을 이용하여 목적에 맞게 보기 좋게 꾸미기</t>
+  </si>
+  <si>
+    <t>뷰티플래너</t>
+  </si>
+  <si>
+    <t>메이크업 네일아트, 피부관리법 등을 숙지하고 연출하는 방법 익히기</t>
+  </si>
+  <si>
+    <t>청소년수련관 방학프로그램 &lt;겨울&amp;수련관&gt; -소프트웨어 코딩-</t>
+  </si>
+  <si>
+    <t>컴퓨터를 움직이는 명령인‘코딩이란 무엇인지, 컴퓨터 없이 컴퓨터 과학을 해보기</t>
+  </si>
+  <si>
+    <t>“우리 함께-위더스(With Us)” -&lt;스포츠댄스교실&gt;</t>
+  </si>
+  <si>
+    <t>라틴댄스, 차차차, 자이브 등 다양한 스포츠 댄스 익히기</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6033,16 +6657,28 @@
       <name val="Noto Sans KR"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Nanum Gothic"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6050,11 +6686,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDE2E8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFDDE2E8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDE2E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6079,6 +6728,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6395,10 +7048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F1080"/>
+  <dimension ref="B1:F1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
-      <selection activeCell="D1077" sqref="D1077"/>
+    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
+      <selection activeCell="D1103" sqref="D1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24763,6 +25416,1791 @@
         <v>1829</v>
       </c>
     </row>
+    <row r="1081" spans="2:6">
+      <c r="B1081" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E1081">
+        <v>1</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:6">
+      <c r="B1082" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E1082">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:6">
+      <c r="B1083" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E1083">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:6">
+      <c r="B1084" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E1084">
+        <v>0</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:6">
+      <c r="B1085" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E1085">
+        <v>1</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:6">
+      <c r="B1086" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1086">
+        <v>1</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:6">
+      <c r="B1087" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E1087">
+        <v>1</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:6">
+      <c r="B1088" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E1088">
+        <v>1</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:6">
+      <c r="B1089" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1089">
+        <v>1</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:6">
+      <c r="B1090" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E1090">
+        <v>0</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:6">
+      <c r="B1091" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1091">
+        <v>1</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:6">
+      <c r="B1092" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E1092">
+        <v>0</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:6">
+      <c r="B1093" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E1093">
+        <v>1</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:6">
+      <c r="B1094" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1094" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E1094">
+        <v>1</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:6">
+      <c r="B1095" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E1095">
+        <v>1</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:6">
+      <c r="B1096" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1096">
+        <v>0</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:6">
+      <c r="B1097" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E1097">
+        <v>0</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:6">
+      <c r="B1098" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1098">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:6">
+      <c r="B1099" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1099">
+        <v>1</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:6">
+      <c r="B1100" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E1100">
+        <v>1</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:6">
+      <c r="B1101" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1101">
+        <v>1</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:6">
+      <c r="B1102" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E1102">
+        <v>0</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:6">
+      <c r="B1103" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E1103">
+        <v>1</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:6">
+      <c r="B1104" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E1104">
+        <v>1</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:6">
+      <c r="B1105" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1105">
+        <v>0</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:6">
+      <c r="B1106" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1106">
+        <v>0</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:6">
+      <c r="B1107" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E1107">
+        <v>0</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:6">
+      <c r="B1108" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1108">
+        <v>0</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:6">
+      <c r="B1109" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1109">
+        <v>0</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:6">
+      <c r="B1110" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1110">
+        <v>1</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:6">
+      <c r="B1111" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E1111">
+        <v>1</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:6">
+      <c r="B1112" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E1112">
+        <v>1</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:6">
+      <c r="B1113" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E1113">
+        <v>1</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:6">
+      <c r="B1114" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E1114">
+        <v>0</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:6">
+      <c r="B1115" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E1115">
+        <v>0</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:6">
+      <c r="B1116" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1116">
+        <v>1</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:6">
+      <c r="B1117" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E1117">
+        <v>0</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:6">
+      <c r="B1118" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E1118">
+        <v>1</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:6">
+      <c r="B1119" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E1119">
+        <v>0</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:6">
+      <c r="B1120" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E1120">
+        <v>1</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:6">
+      <c r="B1121" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E1121">
+        <v>0</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:6">
+      <c r="B1122" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1122">
+        <v>0</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:6">
+      <c r="B1123" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E1123">
+        <v>0</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:6">
+      <c r="B1124" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E1124">
+        <v>0</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:6">
+      <c r="B1125" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E1125">
+        <v>1</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:6">
+      <c r="B1126" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E1126">
+        <v>1</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:6">
+      <c r="B1127" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E1127">
+        <v>0</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:6">
+      <c r="B1128" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1128">
+        <v>1</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:6">
+      <c r="B1129" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E1129">
+        <v>1</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:6">
+      <c r="B1130" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1130">
+        <v>0</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:6">
+      <c r="B1131" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1131">
+        <v>1</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:6">
+      <c r="B1132" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1132">
+        <v>1</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:6">
+      <c r="B1133" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1133">
+        <v>1</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:6">
+      <c r="B1134" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1134">
+        <v>1</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:6">
+      <c r="B1135" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1135">
+        <v>0</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:6">
+      <c r="B1136" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E1136">
+        <v>1</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:6">
+      <c r="B1137" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1137">
+        <v>0</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:6">
+      <c r="B1138" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1138">
+        <v>1</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:6">
+      <c r="B1139" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E1139">
+        <v>1</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:6">
+      <c r="B1140" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E1140">
+        <v>1</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:6">
+      <c r="B1141" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1141" s="24" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E1141">
+        <v>0</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:6">
+      <c r="B1142" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1142">
+        <v>1</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:6">
+      <c r="B1143" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E1143">
+        <v>1</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:6">
+      <c r="B1144" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1144">
+        <v>1</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:6">
+      <c r="B1145" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E1145">
+        <v>0</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:6">
+      <c r="B1146" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1146">
+        <v>1</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:6">
+      <c r="B1147" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E1147">
+        <v>1</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:6">
+      <c r="B1148" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E1148">
+        <v>1</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:6">
+      <c r="B1149" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E1149">
+        <v>1</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:6">
+      <c r="B1150" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E1150">
+        <v>0</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:6">
+      <c r="B1151" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>2051</v>
+      </c>
+      <c r="E1151">
+        <v>0</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:6">
+      <c r="B1152" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E1152">
+        <v>1</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:6">
+      <c r="B1153" s="21" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E1153">
+        <v>1</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:6">
+      <c r="B1154" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E1154">
+        <v>0</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:6">
+      <c r="B1155" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E1155">
+        <v>1</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:6">
+      <c r="B1156" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E1156">
+        <v>0</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:6">
+      <c r="B1157" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1157">
+        <v>0</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:6">
+      <c r="B1158" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E1158">
+        <v>1</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:6">
+      <c r="B1159" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1159">
+        <v>0</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:6">
+      <c r="B1160" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E1160">
+        <v>0</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:6">
+      <c r="B1161" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E1161">
+        <v>0</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:6">
+      <c r="B1162" s="24" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E1162">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:6">
+      <c r="B1163" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E1163">
+        <v>1</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:6">
+      <c r="B1164" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E1164">
+        <v>0</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:6">
+      <c r="B1165" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E1165">
+        <v>1</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:6">
+      <c r="B1166" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E1166">
+        <v>1</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:6">
+      <c r="B1167" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E1167">
+        <v>0</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:6">
+      <c r="B1168" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E1168">
+        <v>0</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:6">
+      <c r="B1169" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1169">
+        <v>0</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:6">
+      <c r="B1170" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E1170">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:6">
+      <c r="B1171" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E1171">
+        <v>0</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:6">
+      <c r="B1172" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E1172">
+        <v>0</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:6">
+      <c r="B1173" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E1173">
+        <v>0</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:6">
+      <c r="B1174" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E1174">
+        <v>0</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:6">
+      <c r="B1175" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E1175">
+        <v>0</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:6">
+      <c r="B1176" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E1176">
+        <v>1</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:6">
+      <c r="B1177" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E1177">
+        <v>0</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:6">
+      <c r="B1178" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E1178">
+        <v>0</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:6">
+      <c r="B1179" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E1179">
+        <v>0</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:6">
+      <c r="B1180" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E1180">
+        <v>0</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:6">
+      <c r="B1181" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1181" s="25" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E1181">
+        <v>0</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:6">
+      <c r="B1182" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E1182">
+        <v>0</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:6">
+      <c r="B1183" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1183" s="24" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E1183">
+        <v>0</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:6">
+      <c r="B1184" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1184">
+        <v>1</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:6">
+      <c r="B1185" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1185">
+        <v>0</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>1914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
